--- a/Test-table.xlsx
+++ b/Test-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joonyoungsung/Desktop/Magic/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9836BE51-C8FB-2E4B-8535-7AC13559530F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CCA99F-2156-624E-AC87-304C8B6EB4BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1560" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,128 +20,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>e48ea0a8-c1bc-ace7-b84e-c7f2b146a50e</t>
-  </si>
-  <si>
     <t>jysung@nshc.net</t>
   </si>
   <si>
-    <t>jhchoe@nshc.net</t>
-  </si>
-  <si>
     <t>wykim@nshc.net</t>
   </si>
   <si>
-    <t>EMAIL_SENT</t>
-  </si>
-  <si>
-    <t>ea3de61-8d65-9b66-9664-257d21fad80a</t>
-  </si>
-  <si>
-    <t>982ab1e9-92e-c432-7125-46b5e0b46bd5</t>
-  </si>
-  <si>
-    <t>010-7129-9753</t>
-  </si>
-  <si>
-    <t>sklee@nshc.net</t>
-  </si>
-  <si>
     <t>depark@nshc.net</t>
   </si>
   <si>
-    <t>a25b8348-6b43-91ad-721a-514387d2cd5a</t>
-  </si>
-  <si>
-    <t>bolinlee@nshc.net</t>
-  </si>
-  <si>
-    <t>5beb9574-25f9-421d-d5f7-740dfbd56218</t>
-  </si>
-  <si>
-    <t>a6a29911-75cc-5f-cb4c-b96b8cc2f16c</t>
-  </si>
-  <si>
-    <t>40cad978-445e-3c86-c140-c9d34ad1ada5</t>
-  </si>
-  <si>
-    <t>be1b7707-1cee-4137-6d63-8df3e58d3053</t>
-  </si>
-  <si>
-    <t>d9052f1b-b640-8018-c0df-61c1b9e71be4</t>
-  </si>
-  <si>
-    <t>93c729da-70ba-395e-8db0-978df7f22f7e</t>
-  </si>
-  <si>
-    <t>f47037d9-e69e-c265-f16f-7ad79a972488</t>
-  </si>
-  <si>
-    <t>d20373d0-b4d5-5014-5a52-65a76093877f</t>
-  </si>
-  <si>
     <t>ytkim@nshc.net</t>
   </si>
   <si>
-    <t>4fee40e2-6d85-3870-ec23-c4cd32a3b3cf</t>
-  </si>
-  <si>
-    <t>jyseo@nshc.net</t>
-  </si>
-  <si>
     <t>jhjang@nshc.net</t>
   </si>
   <si>
-    <t>6321fccb-3fa8-2c19-a21a-3b8e25423d9c</t>
-  </si>
-  <si>
-    <t>ejham@nshc.net</t>
-  </si>
-  <si>
     <t>ksyoon@nshc.net</t>
   </si>
   <si>
-    <t>baa55c69-a5a2-f970-bf0f-8147bc2a3a0</t>
-  </si>
-  <si>
-    <t>eskim@nshc.net</t>
-  </si>
-  <si>
-    <t>f8a77de3-88d0-388e-3467-a3775e37d1a0</t>
-  </si>
-  <si>
-    <t>7753da31-b042-1616-e29-9b74692788</t>
-  </si>
-  <si>
-    <t>bhyang@nshc.net</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>e48ea0a8</t>
+  </si>
+  <si>
+    <t>e48ea0a9</t>
+  </si>
+  <si>
+    <t>e48ea0a10</t>
+  </si>
+  <si>
+    <t>e48ea0a11</t>
+  </si>
+  <si>
+    <t>e48ea0a12</t>
+  </si>
+  <si>
+    <t>e48ea0a13</t>
+  </si>
+  <si>
+    <t>e48ea0a14</t>
+  </si>
+  <si>
+    <t>e48ea0a15</t>
+  </si>
+  <si>
+    <t>e48ea0a16</t>
+  </si>
+  <si>
+    <t>e48ea0a17</t>
+  </si>
+  <si>
+    <t>Email</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>Name</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
+    <t>성준영1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
+    <t>성준영2</t>
+  </si>
+  <si>
+    <t>성준영3</t>
+  </si>
+  <si>
+    <t>성준영4</t>
+  </si>
+  <si>
+    <t>성준영5</t>
+  </si>
+  <si>
+    <t>성준영6</t>
+  </si>
+  <si>
+    <t>성준영7</t>
+  </si>
+  <si>
+    <t>성준영8</t>
+  </si>
+  <si>
+    <t>성준영9</t>
+  </si>
+  <si>
+    <t>성준영10</t>
+  </si>
+  <si>
+    <t>성준영11</t>
+  </si>
+  <si>
+    <t>성준영12</t>
+  </si>
+  <si>
+    <t>성준영13</t>
+  </si>
+  <si>
+    <t>성준영14</t>
+  </si>
+  <si>
+    <t>성준영15</t>
+  </si>
+  <si>
+    <t>성준영16</t>
+  </si>
+  <si>
+    <t>성준영17</t>
+  </si>
+  <si>
+    <t>e48ea0a1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>eMAIL_SENT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>e48ea0a2</t>
+  </si>
+  <si>
+    <t>e48ea0a3</t>
+  </si>
+  <si>
+    <t>e48ea0a4</t>
+  </si>
+  <si>
+    <t>e48ea0a5</t>
+  </si>
+  <si>
+    <t>e48ea0a6</t>
+  </si>
+  <si>
+    <t>e48ea0a7</t>
   </si>
 </sst>
 </file>
@@ -1096,426 +1107,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43879</v>
-      </c>
-      <c r="C2">
-        <v>1092779358</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C18" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>43879</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43882</v>
-      </c>
-      <c r="C3">
-        <v>1092779358</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43882</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43965</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1">
-        <v>43965</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43976</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
-        <v>43976</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43986</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1">
-        <v>43986</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44027</v>
-      </c>
-      <c r="C7">
-        <v>1047419753</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1">
-        <v>44027</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44049</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1">
-        <v>44049</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44057</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1">
-        <v>44061</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44098</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1">
-        <v>44098</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44098</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1">
-        <v>44098</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1">
-        <v>44102</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44110</v>
-      </c>
-      <c r="C13">
-        <v>1041217845</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1">
-        <v>44110</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44111</v>
-      </c>
-      <c r="C14">
-        <v>1090694765</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1">
-        <v>44111</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44112</v>
-      </c>
-      <c r="C15">
-        <v>1050514914</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="1">
-        <v>44112</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44112</v>
-      </c>
-      <c r="C16">
-        <v>1097879140</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
-        <v>44113</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44112</v>
-      </c>
-      <c r="C17">
-        <v>1034043012</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1">
-        <v>44114</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44112</v>
-      </c>
-      <c r="C18">
-        <v>1088541345</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1">
-        <v>44115</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
